--- a/data/pca/factorExposure/factorExposure_2012-02-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01539802195943559</v>
+        <v>-0.01524835809870833</v>
       </c>
       <c r="C2">
-        <v>-0.03063502928043326</v>
+        <v>-0.02623454284354829</v>
       </c>
       <c r="D2">
-        <v>0.004734681388017684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007160990185637599</v>
+      </c>
+      <c r="E2">
+        <v>-0.01580181604379431</v>
+      </c>
+      <c r="F2">
+        <v>0.01180244392306479</v>
+      </c>
+      <c r="G2">
+        <v>-0.0165609894280453</v>
+      </c>
+      <c r="H2">
+        <v>-0.05055529119764485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07352115463290679</v>
+        <v>-0.08786273835864017</v>
       </c>
       <c r="C4">
-        <v>-0.05413030990325009</v>
+        <v>-0.04232908182539747</v>
       </c>
       <c r="D4">
-        <v>0.08028463223228381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06263753369108845</v>
+      </c>
+      <c r="E4">
+        <v>-0.01029667159544323</v>
+      </c>
+      <c r="F4">
+        <v>0.03831666910423234</v>
+      </c>
+      <c r="G4">
+        <v>-0.004159781099002027</v>
+      </c>
+      <c r="H4">
+        <v>0.03758323427104517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1097002326407617</v>
+        <v>-0.1194158615108964</v>
       </c>
       <c r="C6">
-        <v>-0.05328220846849571</v>
+        <v>-0.03513217601108293</v>
       </c>
       <c r="D6">
-        <v>-0.002304121336465789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01362242269960546</v>
+      </c>
+      <c r="E6">
+        <v>0.01737221078028954</v>
+      </c>
+      <c r="F6">
+        <v>0.05417981974625798</v>
+      </c>
+      <c r="G6">
+        <v>-0.03506384226488238</v>
+      </c>
+      <c r="H6">
+        <v>-0.1215218370549608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05160017134880285</v>
+        <v>-0.06439104973782059</v>
       </c>
       <c r="C7">
-        <v>-0.02797774246299876</v>
+        <v>-0.01990310081369856</v>
       </c>
       <c r="D7">
-        <v>0.04497925705601408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04474706710206286</v>
+      </c>
+      <c r="E7">
+        <v>-0.0350220477760732</v>
+      </c>
+      <c r="F7">
+        <v>0.03520015940114909</v>
+      </c>
+      <c r="G7">
+        <v>0.0373218961221931</v>
+      </c>
+      <c r="H7">
+        <v>0.005525192634264716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03960877411603047</v>
+        <v>-0.04149845848724463</v>
       </c>
       <c r="C8">
-        <v>-0.0157008317722434</v>
+        <v>-0.0113813342791665</v>
       </c>
       <c r="D8">
-        <v>0.06045269552802495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02385215786924834</v>
+      </c>
+      <c r="E8">
+        <v>-0.02316049130640524</v>
+      </c>
+      <c r="F8">
+        <v>0.05604077951667968</v>
+      </c>
+      <c r="G8">
+        <v>-0.05857292369729596</v>
+      </c>
+      <c r="H8">
+        <v>-0.005434275470575127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06866167702465693</v>
+        <v>-0.07966637289658897</v>
       </c>
       <c r="C9">
-        <v>-0.04257910143344775</v>
+        <v>-0.03080781080238741</v>
       </c>
       <c r="D9">
-        <v>0.07061086498160779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06083716982385455</v>
+      </c>
+      <c r="E9">
+        <v>-0.03056927580184818</v>
+      </c>
+      <c r="F9">
+        <v>0.03546444029851491</v>
+      </c>
+      <c r="G9">
+        <v>-0.009457351835127551</v>
+      </c>
+      <c r="H9">
+        <v>0.04774876269300158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02845755502135431</v>
+        <v>-0.03322086674043753</v>
       </c>
       <c r="C10">
-        <v>-0.02414798218972794</v>
+        <v>-0.03751651210056815</v>
       </c>
       <c r="D10">
-        <v>-0.1684058281443624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1725405222110601</v>
+      </c>
+      <c r="E10">
+        <v>-0.0404297476943021</v>
+      </c>
+      <c r="F10">
+        <v>0.04925848590141829</v>
+      </c>
+      <c r="G10">
+        <v>0.02356400146060064</v>
+      </c>
+      <c r="H10">
+        <v>-0.03791550656894446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07234006957426477</v>
+        <v>-0.07676385822026451</v>
       </c>
       <c r="C11">
-        <v>-0.04504490171411258</v>
+        <v>-0.02769911266423762</v>
       </c>
       <c r="D11">
-        <v>0.05967291277158096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06257173844018396</v>
+      </c>
+      <c r="E11">
+        <v>0.004482805587747869</v>
+      </c>
+      <c r="F11">
+        <v>0.02856862797826894</v>
+      </c>
+      <c r="G11">
+        <v>-0.000556088942068409</v>
+      </c>
+      <c r="H11">
+        <v>0.0868885765550962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05947127463694934</v>
+        <v>-0.06839380458503375</v>
       </c>
       <c r="C12">
-        <v>-0.05157220705731827</v>
+        <v>-0.03773323942252559</v>
       </c>
       <c r="D12">
-        <v>0.04790131161765467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.047749635405113</v>
+      </c>
+      <c r="E12">
+        <v>-0.01344783921422077</v>
+      </c>
+      <c r="F12">
+        <v>0.02015985756070862</v>
+      </c>
+      <c r="G12">
+        <v>-0.003162559562213038</v>
+      </c>
+      <c r="H12">
+        <v>0.04135154161761413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06126573845784152</v>
+        <v>-0.06455387209743974</v>
       </c>
       <c r="C13">
-        <v>-0.03855411186559488</v>
+        <v>-0.02486238702468417</v>
       </c>
       <c r="D13">
-        <v>0.06028948817300835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04293893398968382</v>
+      </c>
+      <c r="E13">
+        <v>-0.01480546336180567</v>
+      </c>
+      <c r="F13">
+        <v>0.007140562728352711</v>
+      </c>
+      <c r="G13">
+        <v>0.006253844566940332</v>
+      </c>
+      <c r="H13">
+        <v>0.04959123965732214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03358766030239362</v>
+        <v>-0.04082867327852652</v>
       </c>
       <c r="C14">
-        <v>-0.03141117151417944</v>
+        <v>-0.02812877487237676</v>
       </c>
       <c r="D14">
-        <v>0.002584990894401228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007175893783424953</v>
+      </c>
+      <c r="E14">
+        <v>-0.03225881669593764</v>
+      </c>
+      <c r="F14">
+        <v>0.01637363844615566</v>
+      </c>
+      <c r="G14">
+        <v>-0.007272864826819249</v>
+      </c>
+      <c r="H14">
+        <v>0.05997708548837755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04053926044702002</v>
+        <v>-0.04042837820095278</v>
       </c>
       <c r="C15">
-        <v>-0.009973148403603135</v>
+        <v>-0.003835828218967587</v>
       </c>
       <c r="D15">
-        <v>0.01739654704393478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004237085917439649</v>
+      </c>
+      <c r="E15">
+        <v>-0.03413641252374832</v>
+      </c>
+      <c r="F15">
+        <v>-0.0004212070116939229</v>
+      </c>
+      <c r="G15">
+        <v>-0.02444159844694044</v>
+      </c>
+      <c r="H15">
+        <v>0.03727002612137293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06140103974136465</v>
+        <v>-0.0712286362223427</v>
       </c>
       <c r="C16">
-        <v>-0.04177070966818196</v>
+        <v>-0.02923345156468154</v>
       </c>
       <c r="D16">
-        <v>0.04825483836728945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06067807137965365</v>
+      </c>
+      <c r="E16">
+        <v>-0.004191897595708146</v>
+      </c>
+      <c r="F16">
+        <v>0.02640112165091534</v>
+      </c>
+      <c r="G16">
+        <v>0.003452502762013463</v>
+      </c>
+      <c r="H16">
+        <v>0.05258336740713861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06300235129558683</v>
+        <v>-0.06370926119469451</v>
       </c>
       <c r="C20">
-        <v>-0.02481777862135724</v>
+        <v>-0.01034023855787534</v>
       </c>
       <c r="D20">
-        <v>0.05435314435249802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03881136174680033</v>
+      </c>
+      <c r="E20">
+        <v>-0.01960610267631029</v>
+      </c>
+      <c r="F20">
+        <v>0.02803526997332617</v>
+      </c>
+      <c r="G20">
+        <v>-0.01452164319539064</v>
+      </c>
+      <c r="H20">
+        <v>0.04660041057293358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02568244367943565</v>
+        <v>-0.02637496643649937</v>
       </c>
       <c r="C21">
-        <v>0.002732601242737754</v>
+        <v>0.008896772111651701</v>
       </c>
       <c r="D21">
-        <v>0.02850046278925489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02532339068401965</v>
+      </c>
+      <c r="E21">
+        <v>-0.04549914599710892</v>
+      </c>
+      <c r="F21">
+        <v>-0.01392219059795754</v>
+      </c>
+      <c r="G21">
+        <v>-0.008992867930497016</v>
+      </c>
+      <c r="H21">
+        <v>-0.04698267234991382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0781271157185023</v>
+        <v>-0.0732248332846846</v>
       </c>
       <c r="C22">
-        <v>-0.0591134193080894</v>
+        <v>-0.03847349618768903</v>
       </c>
       <c r="D22">
-        <v>0.1210111966518701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08044994498986938</v>
+      </c>
+      <c r="E22">
+        <v>-0.5994429243475003</v>
+      </c>
+      <c r="F22">
+        <v>-0.1706387214267153</v>
+      </c>
+      <c r="G22">
+        <v>0.0692205284125661</v>
+      </c>
+      <c r="H22">
+        <v>-0.1544733138015799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07908458882352992</v>
+        <v>-0.07396946521646323</v>
       </c>
       <c r="C23">
-        <v>-0.05789519426340524</v>
+        <v>-0.03699572239173567</v>
       </c>
       <c r="D23">
-        <v>0.1225683513938394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0814484132070129</v>
+      </c>
+      <c r="E23">
+        <v>-0.5987123856712981</v>
+      </c>
+      <c r="F23">
+        <v>-0.1696704570267846</v>
+      </c>
+      <c r="G23">
+        <v>0.06802818482231757</v>
+      </c>
+      <c r="H23">
+        <v>-0.1501937017980161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07332568067972418</v>
+        <v>-0.08067996317354062</v>
       </c>
       <c r="C24">
-        <v>-0.05163843338066482</v>
+        <v>-0.03558635093485971</v>
       </c>
       <c r="D24">
-        <v>0.06001439202176997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0597251362015638</v>
+      </c>
+      <c r="E24">
+        <v>-0.01794646777432212</v>
+      </c>
+      <c r="F24">
+        <v>0.03602021807610907</v>
+      </c>
+      <c r="G24">
+        <v>-0.01322654623256104</v>
+      </c>
+      <c r="H24">
+        <v>0.05052394963249765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07245122244581494</v>
+        <v>-0.07834618190246093</v>
       </c>
       <c r="C25">
-        <v>-0.05524051630978289</v>
+        <v>-0.03853619843719614</v>
       </c>
       <c r="D25">
-        <v>0.06772633756387944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05226505731410365</v>
+      </c>
+      <c r="E25">
+        <v>-0.01999821849437685</v>
+      </c>
+      <c r="F25">
+        <v>0.02583559771284024</v>
+      </c>
+      <c r="G25">
+        <v>-0.0197741225320365</v>
+      </c>
+      <c r="H25">
+        <v>0.05456408311674143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04608558522034655</v>
+        <v>-0.04789070652957202</v>
       </c>
       <c r="C26">
-        <v>-0.009970950241965275</v>
+        <v>-0.003134075437480911</v>
       </c>
       <c r="D26">
-        <v>0.01343598939812081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01722973077060649</v>
+      </c>
+      <c r="E26">
+        <v>-0.04711254210226905</v>
+      </c>
+      <c r="F26">
+        <v>0.02808775287621217</v>
+      </c>
+      <c r="G26">
+        <v>0.008629023064339247</v>
+      </c>
+      <c r="H26">
+        <v>0.05701229923661984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05288695521701741</v>
+        <v>-0.06103706072737839</v>
       </c>
       <c r="C28">
-        <v>-0.06264458445196418</v>
+        <v>-0.07803544438307455</v>
       </c>
       <c r="D28">
-        <v>-0.3123642068738369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.308279226068314</v>
+      </c>
+      <c r="E28">
+        <v>-0.03248133616440187</v>
+      </c>
+      <c r="F28">
+        <v>0.05361701437238087</v>
+      </c>
+      <c r="G28">
+        <v>-0.02846121257987603</v>
+      </c>
+      <c r="H28">
+        <v>-0.04622196987808221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04221178952011835</v>
+        <v>-0.04866424937116886</v>
       </c>
       <c r="C29">
-        <v>-0.029243261043555</v>
+        <v>-0.02506453458906872</v>
       </c>
       <c r="D29">
-        <v>0.008532093823514299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007101921772634685</v>
+      </c>
+      <c r="E29">
+        <v>-0.06096247775632088</v>
+      </c>
+      <c r="F29">
+        <v>0.0109672019233662</v>
+      </c>
+      <c r="G29">
+        <v>0.007593191844513107</v>
+      </c>
+      <c r="H29">
+        <v>0.07647938358994444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1262754209035453</v>
+        <v>-0.1306276130567817</v>
       </c>
       <c r="C30">
-        <v>-0.0885755625984725</v>
+        <v>-0.06315053257530708</v>
       </c>
       <c r="D30">
-        <v>0.1008736650584176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06738194798688012</v>
+      </c>
+      <c r="E30">
+        <v>-0.08098099823055152</v>
+      </c>
+      <c r="F30">
+        <v>-0.008049988385169011</v>
+      </c>
+      <c r="G30">
+        <v>-0.08197990637112376</v>
+      </c>
+      <c r="H30">
+        <v>-0.04133380815520398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04398593472043157</v>
+        <v>-0.04896077898309543</v>
       </c>
       <c r="C31">
-        <v>-0.02182053795706898</v>
+        <v>-0.01425892511196167</v>
       </c>
       <c r="D31">
-        <v>0.02232870325443696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02680970635042388</v>
+      </c>
+      <c r="E31">
+        <v>-0.02509737498603863</v>
+      </c>
+      <c r="F31">
+        <v>0.01310146432706369</v>
+      </c>
+      <c r="G31">
+        <v>0.02480290310770513</v>
+      </c>
+      <c r="H31">
+        <v>0.06465746157185935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03841774154664562</v>
+        <v>-0.03940474648041584</v>
       </c>
       <c r="C32">
-        <v>-0.02849465684966162</v>
+        <v>-0.02298491268937678</v>
       </c>
       <c r="D32">
-        <v>0.02150371119839809</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01008605381482531</v>
+      </c>
+      <c r="E32">
+        <v>-0.04934693400768824</v>
+      </c>
+      <c r="F32">
+        <v>-0.008135775435534095</v>
+      </c>
+      <c r="G32">
+        <v>-0.02613576957025277</v>
+      </c>
+      <c r="H32">
+        <v>0.07605578733949823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08431081420866286</v>
+        <v>-0.09596830711575083</v>
       </c>
       <c r="C33">
-        <v>-0.04314602122650139</v>
+        <v>-0.02865019127860294</v>
       </c>
       <c r="D33">
-        <v>0.05976486949880098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04564039697838652</v>
+      </c>
+      <c r="E33">
+        <v>-0.01373486658288131</v>
+      </c>
+      <c r="F33">
+        <v>0.006239313193927861</v>
+      </c>
+      <c r="G33">
+        <v>0.006093310345890463</v>
+      </c>
+      <c r="H33">
+        <v>0.05541139519192935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05786182681252493</v>
+        <v>-0.0634338237880312</v>
       </c>
       <c r="C34">
-        <v>-0.02708898942092493</v>
+        <v>-0.01403735124416744</v>
       </c>
       <c r="D34">
-        <v>0.05707431355814235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05154309409454334</v>
+      </c>
+      <c r="E34">
+        <v>-0.006703994768762153</v>
+      </c>
+      <c r="F34">
+        <v>0.01617126173369136</v>
+      </c>
+      <c r="G34">
+        <v>0.001398563750907444</v>
+      </c>
+      <c r="H34">
+        <v>0.05773744966049063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03764775680496154</v>
+        <v>-0.03974177444021171</v>
       </c>
       <c r="C35">
-        <v>-0.00712627467839413</v>
+        <v>-0.003238618776282161</v>
       </c>
       <c r="D35">
-        <v>0.01587802858403414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009367178915821821</v>
+      </c>
+      <c r="E35">
+        <v>-0.01964718973614687</v>
+      </c>
+      <c r="F35">
+        <v>-0.01370762831870179</v>
+      </c>
+      <c r="G35">
+        <v>0.009445745444387759</v>
+      </c>
+      <c r="H35">
+        <v>0.01664457283321834</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02284983646946594</v>
+        <v>-0.02876271440550897</v>
       </c>
       <c r="C36">
-        <v>-0.01619637549242237</v>
+        <v>-0.01352793885467728</v>
       </c>
       <c r="D36">
-        <v>0.02309034797937392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01533216423453168</v>
+      </c>
+      <c r="E36">
+        <v>-0.033340824391113</v>
+      </c>
+      <c r="F36">
+        <v>0.02204092723686272</v>
+      </c>
+      <c r="G36">
+        <v>0.007602809269401586</v>
+      </c>
+      <c r="H36">
+        <v>0.04546061023862667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0407056304127532</v>
+        <v>-0.04425928474662646</v>
       </c>
       <c r="C38">
-        <v>-0.004164883790372746</v>
+        <v>0.0008179777377766085</v>
       </c>
       <c r="D38">
-        <v>0.01933505296126759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01831940294609895</v>
+      </c>
+      <c r="E38">
+        <v>-0.05231270205355174</v>
+      </c>
+      <c r="F38">
+        <v>-0.006778710077018302</v>
+      </c>
+      <c r="G38">
+        <v>-0.007856026987041576</v>
+      </c>
+      <c r="H38">
+        <v>0.03574271229124791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09234397478739824</v>
+        <v>-0.1022512305751755</v>
       </c>
       <c r="C39">
-        <v>-0.07282668923631207</v>
+        <v>-0.05289485863826517</v>
       </c>
       <c r="D39">
-        <v>0.05659876396810798</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06028656853233048</v>
+      </c>
+      <c r="E39">
+        <v>-0.004969458139858675</v>
+      </c>
+      <c r="F39">
+        <v>-0.0001613732366803245</v>
+      </c>
+      <c r="G39">
+        <v>-0.03541420275011659</v>
+      </c>
+      <c r="H39">
+        <v>0.04476790200387966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0768750057118711</v>
+        <v>-0.07140711137417144</v>
       </c>
       <c r="C40">
-        <v>-0.03841062822806753</v>
+        <v>-0.01975794857076102</v>
       </c>
       <c r="D40">
-        <v>-0.0009209842343849469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01012972506629514</v>
+      </c>
+      <c r="E40">
+        <v>-0.01805679786018751</v>
+      </c>
+      <c r="F40">
+        <v>-0.05856915366152926</v>
+      </c>
+      <c r="G40">
+        <v>-0.05669768224922694</v>
+      </c>
+      <c r="H40">
+        <v>-0.08825987511759727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04158591041379926</v>
+        <v>-0.04476226787097735</v>
       </c>
       <c r="C41">
-        <v>-0.004734644816969338</v>
+        <v>0.001320069171205247</v>
       </c>
       <c r="D41">
-        <v>0.03464350500589256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03175845971056794</v>
+      </c>
+      <c r="E41">
+        <v>8.812538751737823e-05</v>
+      </c>
+      <c r="F41">
+        <v>-0.01443897034271828</v>
+      </c>
+      <c r="G41">
+        <v>-0.009727408126928397</v>
+      </c>
+      <c r="H41">
+        <v>0.03451457304162534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05087772437966828</v>
+        <v>-0.05943552316539788</v>
       </c>
       <c r="C43">
-        <v>-0.02483546934138502</v>
+        <v>-0.01778017319801944</v>
       </c>
       <c r="D43">
-        <v>0.01507597700993417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02227670597314979</v>
+      </c>
+      <c r="E43">
+        <v>-0.02138843363524326</v>
+      </c>
+      <c r="F43">
+        <v>0.01331988139741193</v>
+      </c>
+      <c r="G43">
+        <v>0.01608800226640813</v>
+      </c>
+      <c r="H43">
+        <v>0.05400218219762505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09546121736793124</v>
+        <v>-0.09702321656718343</v>
       </c>
       <c r="C44">
-        <v>-0.09103141227489808</v>
+        <v>-0.06727028917768355</v>
       </c>
       <c r="D44">
-        <v>0.07971640608476661</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05528624114595668</v>
+      </c>
+      <c r="E44">
+        <v>-0.0848191080067917</v>
+      </c>
+      <c r="F44">
+        <v>0.05217392933448034</v>
+      </c>
+      <c r="G44">
+        <v>-0.02602329924647513</v>
+      </c>
+      <c r="H44">
+        <v>0.01302100287681151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02570728456227498</v>
+        <v>-0.03423532697136215</v>
       </c>
       <c r="C46">
-        <v>-0.01409246456024042</v>
+        <v>-0.01179039564182916</v>
       </c>
       <c r="D46">
-        <v>0.02575696522720663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03315395087933529</v>
+      </c>
+      <c r="E46">
+        <v>-0.03573344461517799</v>
+      </c>
+      <c r="F46">
+        <v>0.01611547699090526</v>
+      </c>
+      <c r="G46">
+        <v>0.007005517972313957</v>
+      </c>
+      <c r="H46">
+        <v>0.03691740730981865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03052461280993788</v>
+        <v>-0.03802677811652745</v>
       </c>
       <c r="C47">
-        <v>-0.02405871031842004</v>
+        <v>-0.02013926460257999</v>
       </c>
       <c r="D47">
-        <v>0.01081284171363139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009026156826955642</v>
+      </c>
+      <c r="E47">
+        <v>-0.04656354915476331</v>
+      </c>
+      <c r="F47">
+        <v>0.008781912395596147</v>
+      </c>
+      <c r="G47">
+        <v>0.04288455815837845</v>
+      </c>
+      <c r="H47">
+        <v>0.02718892010396143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03413958511585052</v>
+        <v>-0.03860708919082059</v>
       </c>
       <c r="C48">
-        <v>-0.01739303589400956</v>
+        <v>-0.01057203018985812</v>
       </c>
       <c r="D48">
-        <v>0.03137671956838083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01919217970972039</v>
+      </c>
+      <c r="E48">
+        <v>-0.04050930283345474</v>
+      </c>
+      <c r="F48">
+        <v>0.007227756589594723</v>
+      </c>
+      <c r="G48">
+        <v>-0.01301419058243486</v>
+      </c>
+      <c r="H48">
+        <v>0.04046315088748417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1621586521670004</v>
+        <v>-0.190179458796922</v>
       </c>
       <c r="C49">
-        <v>-0.04991888857105923</v>
+        <v>-0.03160851555815894</v>
       </c>
       <c r="D49">
-        <v>-0.01194443486701057</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02438593278224419</v>
+      </c>
+      <c r="E49">
+        <v>0.1526604539905615</v>
+      </c>
+      <c r="F49">
+        <v>0.06298028167000359</v>
+      </c>
+      <c r="G49">
+        <v>0.05574593919490652</v>
+      </c>
+      <c r="H49">
+        <v>-0.2287227621391391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04054616875338779</v>
+        <v>-0.04611957919783273</v>
       </c>
       <c r="C50">
-        <v>-0.02016312229044066</v>
+        <v>-0.01372332956286685</v>
       </c>
       <c r="D50">
-        <v>0.03985999241827412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03286755351188428</v>
+      </c>
+      <c r="E50">
+        <v>-0.04362781067384398</v>
+      </c>
+      <c r="F50">
+        <v>0.01434107744230899</v>
+      </c>
+      <c r="G50">
+        <v>0.0223752228570009</v>
+      </c>
+      <c r="H50">
+        <v>0.0661852211999238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02833677565721022</v>
+        <v>-0.03069810603058846</v>
       </c>
       <c r="C51">
-        <v>-0.0110777876778786</v>
+        <v>-0.00537652643868873</v>
       </c>
       <c r="D51">
-        <v>0.008237611775409777</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01037492124384708</v>
+      </c>
+      <c r="E51">
+        <v>-0.01314612481280384</v>
+      </c>
+      <c r="F51">
+        <v>0.01625408925370722</v>
+      </c>
+      <c r="G51">
+        <v>0.0003894096591858688</v>
+      </c>
+      <c r="H51">
+        <v>-0.0008255199390544421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.153038376039184</v>
+        <v>-0.1629908460839729</v>
       </c>
       <c r="C53">
-        <v>-0.07237719744763622</v>
+        <v>-0.050016808480207</v>
       </c>
       <c r="D53">
-        <v>0.009668352163560502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01702864208686225</v>
+      </c>
+      <c r="E53">
+        <v>0.02867875196478384</v>
+      </c>
+      <c r="F53">
+        <v>0.01794009467079138</v>
+      </c>
+      <c r="G53">
+        <v>0.02500407942047046</v>
+      </c>
+      <c r="H53">
+        <v>0.1805042872372898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05749567619970622</v>
+        <v>-0.05852411355388751</v>
       </c>
       <c r="C54">
-        <v>-0.02553506014800722</v>
+        <v>-0.01462816409480421</v>
       </c>
       <c r="D54">
-        <v>0.0222456699521967</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01531603009907576</v>
+      </c>
+      <c r="E54">
+        <v>-0.04606661184624878</v>
+      </c>
+      <c r="F54">
+        <v>0.007401920849588954</v>
+      </c>
+      <c r="G54">
+        <v>-0.0137794012289617</v>
+      </c>
+      <c r="H54">
+        <v>0.05238276973952806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09889467840581058</v>
+        <v>-0.1037192305677885</v>
       </c>
       <c r="C55">
-        <v>-0.0502980673399263</v>
+        <v>-0.03419777799143108</v>
       </c>
       <c r="D55">
-        <v>0.02063773858939237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02200725270724885</v>
+      </c>
+      <c r="E55">
+        <v>-0.01130938660827261</v>
+      </c>
+      <c r="F55">
+        <v>0.01598076904834249</v>
+      </c>
+      <c r="G55">
+        <v>0.01740703202347248</v>
+      </c>
+      <c r="H55">
+        <v>0.1550578884452164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1497053934083758</v>
+        <v>-0.162149570059368</v>
       </c>
       <c r="C56">
-        <v>-0.08913431918272707</v>
+        <v>-0.06521852302974197</v>
       </c>
       <c r="D56">
-        <v>0.01369093707619566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01963691681195876</v>
+      </c>
+      <c r="E56">
+        <v>0.02398048669622532</v>
+      </c>
+      <c r="F56">
+        <v>0.03133495806355018</v>
+      </c>
+      <c r="G56">
+        <v>0.0384765282811216</v>
+      </c>
+      <c r="H56">
+        <v>0.1733903031305456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1298823201690967</v>
+        <v>-0.1010092527529527</v>
       </c>
       <c r="C58">
-        <v>-0.0007492222499449197</v>
+        <v>0.04009941213922502</v>
       </c>
       <c r="D58">
-        <v>0.03142579314851721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03577976449054175</v>
+      </c>
+      <c r="E58">
+        <v>-0.1414395832288103</v>
+      </c>
+      <c r="F58">
+        <v>-0.006182539174441454</v>
+      </c>
+      <c r="G58">
+        <v>0.01481553532320187</v>
+      </c>
+      <c r="H58">
+        <v>-0.2228733964825841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.121782991562039</v>
+        <v>-0.1359558136473174</v>
       </c>
       <c r="C59">
-        <v>-0.07312965078257586</v>
+        <v>-0.08523743528307243</v>
       </c>
       <c r="D59">
-        <v>-0.3641715388758008</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3655619761583381</v>
+      </c>
+      <c r="E59">
+        <v>-0.02783970301781943</v>
+      </c>
+      <c r="F59">
+        <v>0.01487512522004952</v>
+      </c>
+      <c r="G59">
+        <v>0.0195517907968771</v>
+      </c>
+      <c r="H59">
+        <v>0.001886165856583253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.20490236240315</v>
+        <v>-0.2335499061214591</v>
       </c>
       <c r="C60">
-        <v>-0.09215031126113392</v>
+        <v>-0.06383779999808818</v>
       </c>
       <c r="D60">
-        <v>0.01766536983410551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04114404575246426</v>
+      </c>
+      <c r="E60">
+        <v>0.09715910325771994</v>
+      </c>
+      <c r="F60">
+        <v>0.05696712789361438</v>
+      </c>
+      <c r="G60">
+        <v>-0.02399331904521374</v>
+      </c>
+      <c r="H60">
+        <v>-0.1498380813404598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0821877473877707</v>
+        <v>-0.08898752000743777</v>
       </c>
       <c r="C61">
-        <v>-0.05182581939282268</v>
+        <v>-0.03789520783045723</v>
       </c>
       <c r="D61">
-        <v>0.04412386713246091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04020205991984832</v>
+      </c>
+      <c r="E61">
+        <v>-0.0005009173788352597</v>
+      </c>
+      <c r="F61">
+        <v>0.0006574506899721706</v>
+      </c>
+      <c r="G61">
+        <v>0.0007582271350248268</v>
+      </c>
+      <c r="H61">
+        <v>0.05986850063710298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1295240658138407</v>
+        <v>-0.1386270228952856</v>
       </c>
       <c r="C62">
-        <v>-0.06173341118288597</v>
+        <v>-0.03946390488513685</v>
       </c>
       <c r="D62">
-        <v>0.02123735133272822</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03252368286123038</v>
+      </c>
+      <c r="E62">
+        <v>0.05866669598323741</v>
+      </c>
+      <c r="F62">
+        <v>0.01187600802029094</v>
+      </c>
+      <c r="G62">
+        <v>0.0002738585067552893</v>
+      </c>
+      <c r="H62">
+        <v>0.1842090965864689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05142450861324496</v>
+        <v>-0.05133920593247773</v>
       </c>
       <c r="C63">
-        <v>-0.02406260233803527</v>
+        <v>-0.0138683394061042</v>
       </c>
       <c r="D63">
-        <v>0.02163634083282755</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01953636189014315</v>
+      </c>
+      <c r="E63">
+        <v>-0.04816731708018671</v>
+      </c>
+      <c r="F63">
+        <v>-0.006851842917506471</v>
+      </c>
+      <c r="G63">
+        <v>-0.01990294429578599</v>
+      </c>
+      <c r="H63">
+        <v>0.0531557853396223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1045447286282931</v>
+        <v>-0.1087754702953041</v>
       </c>
       <c r="C64">
-        <v>-0.03222592862190944</v>
+        <v>-0.01636737441947659</v>
       </c>
       <c r="D64">
-        <v>0.04306274406865428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0302683660875281</v>
+      </c>
+      <c r="E64">
+        <v>-0.03088608952922192</v>
+      </c>
+      <c r="F64">
+        <v>0.03941534830648544</v>
+      </c>
+      <c r="G64">
+        <v>-0.04688608602672007</v>
+      </c>
+      <c r="H64">
+        <v>0.04343784196961081</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1263899929502149</v>
+        <v>-0.1262577603817128</v>
       </c>
       <c r="C65">
-        <v>-0.05832557803200996</v>
+        <v>-0.03775652392094477</v>
       </c>
       <c r="D65">
-        <v>-0.0168848081627152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.006976644689293495</v>
+      </c>
+      <c r="E65">
+        <v>-0.00428081953845169</v>
+      </c>
+      <c r="F65">
+        <v>0.05388491310337132</v>
+      </c>
+      <c r="G65">
+        <v>-0.06328626547423342</v>
+      </c>
+      <c r="H65">
+        <v>-0.1530797049859771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1470795253688701</v>
+        <v>-0.1546062131389802</v>
       </c>
       <c r="C66">
-        <v>-0.07266851002096492</v>
+        <v>-0.04518611130009798</v>
       </c>
       <c r="D66">
-        <v>0.1116203629430359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09545513526310616</v>
+      </c>
+      <c r="E66">
+        <v>0.02305704569325322</v>
+      </c>
+      <c r="F66">
+        <v>0.01006613231693078</v>
+      </c>
+      <c r="G66">
+        <v>-0.03965920697907773</v>
+      </c>
+      <c r="H66">
+        <v>0.1148273812223252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07376324993163709</v>
+        <v>-0.0841749474161942</v>
       </c>
       <c r="C67">
-        <v>-0.01322522960326588</v>
+        <v>-0.004976904901958789</v>
       </c>
       <c r="D67">
-        <v>0.02240682830853958</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03017035586294099</v>
+      </c>
+      <c r="E67">
+        <v>-0.02012961951996184</v>
+      </c>
+      <c r="F67">
+        <v>0.02021173303820437</v>
+      </c>
+      <c r="G67">
+        <v>0.01074728760946755</v>
+      </c>
+      <c r="H67">
+        <v>0.03805092859671087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05845744000483256</v>
+        <v>-0.05672923171460782</v>
       </c>
       <c r="C68">
-        <v>-0.0442320054976006</v>
+        <v>-0.05597258090503125</v>
       </c>
       <c r="D68">
-        <v>-0.2540855366609044</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2705862770330021</v>
+      </c>
+      <c r="E68">
+        <v>-0.03834967997770628</v>
+      </c>
+      <c r="F68">
+        <v>0.01422931885360242</v>
+      </c>
+      <c r="G68">
+        <v>0.01472109869892153</v>
+      </c>
+      <c r="H68">
+        <v>0.006407005357432782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05186612162077427</v>
+        <v>-0.05276679243232493</v>
       </c>
       <c r="C69">
-        <v>-0.01656063657692537</v>
+        <v>-0.005975097476781472</v>
       </c>
       <c r="D69">
-        <v>0.02025467318148061</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01590018454590999</v>
+      </c>
+      <c r="E69">
+        <v>-0.02556992771210906</v>
+      </c>
+      <c r="F69">
+        <v>-0.008485443301170011</v>
+      </c>
+      <c r="G69">
+        <v>0.02375486839019044</v>
+      </c>
+      <c r="H69">
+        <v>0.04684670280375162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004038180754547849</v>
+        <v>-0.02706267357919204</v>
       </c>
       <c r="C70">
-        <v>0.005024385577089512</v>
+        <v>-9.694753926271596e-05</v>
       </c>
       <c r="D70">
-        <v>0.003906390920915156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005414736425784487</v>
+      </c>
+      <c r="E70">
+        <v>0.02288588777491728</v>
+      </c>
+      <c r="F70">
+        <v>0.01402652147825914</v>
+      </c>
+      <c r="G70">
+        <v>0.02745716487624266</v>
+      </c>
+      <c r="H70">
+        <v>-0.02633814930282955</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05804302310598874</v>
+        <v>-0.05869523881656683</v>
       </c>
       <c r="C71">
-        <v>-0.04407667312957411</v>
+        <v>-0.06004157046379957</v>
       </c>
       <c r="D71">
-        <v>-0.2934053595014907</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2958521671016078</v>
+      </c>
+      <c r="E71">
+        <v>-0.03471312037458479</v>
+      </c>
+      <c r="F71">
+        <v>0.04299470673867732</v>
+      </c>
+      <c r="G71">
+        <v>0.003407975954630845</v>
+      </c>
+      <c r="H71">
+        <v>0.00879862489330758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1413756021023948</v>
+        <v>-0.1440435656549929</v>
       </c>
       <c r="C72">
-        <v>-0.06129044165805578</v>
+        <v>-0.03455458324028995</v>
       </c>
       <c r="D72">
-        <v>-0.001342344552855646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004033080065078103</v>
+      </c>
+      <c r="E72">
+        <v>0.08639200736890222</v>
+      </c>
+      <c r="F72">
+        <v>-0.1647800892066175</v>
+      </c>
+      <c r="G72">
+        <v>-0.120909546701757</v>
+      </c>
+      <c r="H72">
+        <v>0.01498638553118678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2825712727722035</v>
+        <v>-0.289320026452659</v>
       </c>
       <c r="C73">
-        <v>-0.1059555519916811</v>
+        <v>-0.0457694863238888</v>
       </c>
       <c r="D73">
-        <v>0.04314956400612981</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09376986405485833</v>
+      </c>
+      <c r="E73">
+        <v>0.2111468720522715</v>
+      </c>
+      <c r="F73">
+        <v>0.0994069679052467</v>
+      </c>
+      <c r="G73">
+        <v>0.1356065530150731</v>
+      </c>
+      <c r="H73">
+        <v>-0.4954201175376833</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07954370827436816</v>
+        <v>-0.09138574676832438</v>
       </c>
       <c r="C74">
-        <v>-0.07686026374752458</v>
+        <v>-0.06252205321528705</v>
       </c>
       <c r="D74">
-        <v>0.01135251833994882</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02920293230845962</v>
+      </c>
+      <c r="E74">
+        <v>0.003055686291461758</v>
+      </c>
+      <c r="F74">
+        <v>0.001893424033176408</v>
+      </c>
+      <c r="G74">
+        <v>0.05578191461171159</v>
+      </c>
+      <c r="H74">
+        <v>0.1138455837865921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09575984997229332</v>
+        <v>-0.1012083638223097</v>
       </c>
       <c r="C75">
-        <v>-0.04908795825428793</v>
+        <v>-0.02753051568003124</v>
       </c>
       <c r="D75">
-        <v>0.004966258031197338</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01389123141538308</v>
+      </c>
+      <c r="E75">
+        <v>-0.003721527379696547</v>
+      </c>
+      <c r="F75">
+        <v>0.02333940397484659</v>
+      </c>
+      <c r="G75">
+        <v>0.0257596365792347</v>
+      </c>
+      <c r="H75">
+        <v>0.1149157601604407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1301512060611714</v>
+        <v>-0.1409147740301504</v>
       </c>
       <c r="C76">
-        <v>-0.0817104295556975</v>
+        <v>-0.05982487038478405</v>
       </c>
       <c r="D76">
-        <v>0.04408647544079578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04722900708785174</v>
+      </c>
+      <c r="E76">
+        <v>-0.01947616187495596</v>
+      </c>
+      <c r="F76">
+        <v>0.04748052835253442</v>
+      </c>
+      <c r="G76">
+        <v>0.01868986376849411</v>
+      </c>
+      <c r="H76">
+        <v>0.2028151451779975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1170805382105046</v>
+        <v>-0.1084828432656881</v>
       </c>
       <c r="C77">
-        <v>-0.008216557263158323</v>
+        <v>0.01857448973379562</v>
       </c>
       <c r="D77">
-        <v>0.06168763671303348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0220767691362643</v>
+      </c>
+      <c r="E77">
+        <v>-0.02278503258879754</v>
+      </c>
+      <c r="F77">
+        <v>0.1054182931272528</v>
+      </c>
+      <c r="G77">
+        <v>-0.8921895114230721</v>
+      </c>
+      <c r="H77">
+        <v>-0.07364906356302411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1049191686090025</v>
+        <v>-0.1437586655473596</v>
       </c>
       <c r="C78">
-        <v>-0.03844680826873642</v>
+        <v>-0.03503021747180041</v>
       </c>
       <c r="D78">
-        <v>0.08287607733973945</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07812815667021898</v>
+      </c>
+      <c r="E78">
+        <v>-0.05418982903496451</v>
+      </c>
+      <c r="F78">
+        <v>0.04721431707490002</v>
+      </c>
+      <c r="G78">
+        <v>-0.08567031993939504</v>
+      </c>
+      <c r="H78">
+        <v>-0.04333048807816991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1468376057693025</v>
+        <v>-0.1514343963591916</v>
       </c>
       <c r="C79">
-        <v>-0.06944371903680945</v>
+        <v>-0.04165664562515967</v>
       </c>
       <c r="D79">
-        <v>0.02883069329151467</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02675177687106938</v>
+      </c>
+      <c r="E79">
+        <v>0.01821259015878585</v>
+      </c>
+      <c r="F79">
+        <v>0.02257815212187183</v>
+      </c>
+      <c r="G79">
+        <v>0.04446203050246538</v>
+      </c>
+      <c r="H79">
+        <v>0.1715784867301401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04206112433807435</v>
+        <v>-0.04307522996985353</v>
       </c>
       <c r="C80">
-        <v>-0.01922104458630037</v>
+        <v>-0.01412277988929019</v>
       </c>
       <c r="D80">
-        <v>0.02813229737068603</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01171207279744877</v>
+      </c>
+      <c r="E80">
+        <v>0.02848556585700008</v>
+      </c>
+      <c r="F80">
+        <v>0.009001925636055709</v>
+      </c>
+      <c r="G80">
+        <v>0.02355456957756509</v>
+      </c>
+      <c r="H80">
+        <v>0.03734991281232409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1175680190197007</v>
+        <v>-0.119766238337923</v>
       </c>
       <c r="C81">
-        <v>-0.0613939665827806</v>
+        <v>-0.03837694599113802</v>
       </c>
       <c r="D81">
-        <v>0.03065461256064161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02269830575734095</v>
+      </c>
+      <c r="E81">
+        <v>-0.009642862112840041</v>
+      </c>
+      <c r="F81">
+        <v>0.01912131381016829</v>
+      </c>
+      <c r="G81">
+        <v>0.06039535207455971</v>
+      </c>
+      <c r="H81">
+        <v>0.1527559700869738</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.129918983908666</v>
+        <v>-0.1318024689820397</v>
       </c>
       <c r="C82">
-        <v>-0.07376240048885112</v>
+        <v>-0.05054523627111432</v>
       </c>
       <c r="D82">
-        <v>0.01635661348616179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02398483009401817</v>
+      </c>
+      <c r="E82">
+        <v>0.01601900133028661</v>
+      </c>
+      <c r="F82">
+        <v>0.05678891593375329</v>
+      </c>
+      <c r="G82">
+        <v>0.05591366254911823</v>
+      </c>
+      <c r="H82">
+        <v>0.2177897738056204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0747025028627766</v>
+        <v>-0.08574729672854423</v>
       </c>
       <c r="C83">
-        <v>0.01308985045577215</v>
+        <v>0.02556360055032096</v>
       </c>
       <c r="D83">
-        <v>0.03031265367297033</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0332343163099858</v>
+      </c>
+      <c r="E83">
+        <v>-0.01805840119795224</v>
+      </c>
+      <c r="F83">
+        <v>0.05770690205755191</v>
+      </c>
+      <c r="G83">
+        <v>0.07736494984204233</v>
+      </c>
+      <c r="H83">
+        <v>-0.05474896575625021</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02915026598167244</v>
+        <v>-0.03720482184032125</v>
       </c>
       <c r="C84">
-        <v>-0.02840035305197739</v>
+        <v>-0.02342810850082534</v>
       </c>
       <c r="D84">
-        <v>0.02712748396681267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03114153422775615</v>
+      </c>
+      <c r="E84">
+        <v>-0.0282386400796102</v>
+      </c>
+      <c r="F84">
+        <v>-0.05053048100035379</v>
+      </c>
+      <c r="G84">
+        <v>0.06352072823162827</v>
+      </c>
+      <c r="H84">
+        <v>0.005380200588267207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1204640835834096</v>
+        <v>-0.1220771269018618</v>
       </c>
       <c r="C85">
-        <v>-0.04731686183961387</v>
+        <v>-0.02466090320458359</v>
       </c>
       <c r="D85">
-        <v>0.01619266248423598</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01972049220381998</v>
+      </c>
+      <c r="E85">
+        <v>-0.01463532184693982</v>
+      </c>
+      <c r="F85">
+        <v>0.0378558712534272</v>
+      </c>
+      <c r="G85">
+        <v>0.03668870716869092</v>
+      </c>
+      <c r="H85">
+        <v>0.157104157726143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05351311613678577</v>
+        <v>-0.05915354972106802</v>
       </c>
       <c r="C86">
-        <v>-0.02052794852703415</v>
+        <v>-0.01151162214747412</v>
       </c>
       <c r="D86">
-        <v>0.03167665346317714</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02803900008923945</v>
+      </c>
+      <c r="E86">
+        <v>-0.05915795242130713</v>
+      </c>
+      <c r="F86">
+        <v>0.03048834256946003</v>
+      </c>
+      <c r="G86">
+        <v>0.02201677136654327</v>
+      </c>
+      <c r="H86">
+        <v>-0.002894391146981228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1170435636020819</v>
+        <v>-0.1213492774253368</v>
       </c>
       <c r="C87">
-        <v>-0.07300512973755022</v>
+        <v>-0.04251384304389948</v>
       </c>
       <c r="D87">
-        <v>0.07838200084126389</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07045341780700595</v>
+      </c>
+      <c r="E87">
+        <v>-0.01807503494051307</v>
+      </c>
+      <c r="F87">
+        <v>0.00655792466839752</v>
+      </c>
+      <c r="G87">
+        <v>-0.1364340294674663</v>
+      </c>
+      <c r="H87">
+        <v>-0.03758775033950639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05268508363197501</v>
+        <v>-0.06063396971721405</v>
       </c>
       <c r="C88">
-        <v>-0.02938725783947804</v>
+        <v>-0.02157480909321193</v>
       </c>
       <c r="D88">
-        <v>0.02244714200832057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03167770806906602</v>
+      </c>
+      <c r="E88">
+        <v>-0.01790825126291947</v>
+      </c>
+      <c r="F88">
+        <v>0.01077721106156902</v>
+      </c>
+      <c r="G88">
+        <v>-0.005459511575720537</v>
+      </c>
+      <c r="H88">
+        <v>0.05278116232101845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08762184966117141</v>
+        <v>-0.09458103142406767</v>
       </c>
       <c r="C89">
-        <v>-0.0677608167182454</v>
+        <v>-0.08381193030845284</v>
       </c>
       <c r="D89">
-        <v>-0.3266434189025051</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.349645526529502</v>
+      </c>
+      <c r="E89">
+        <v>-0.07065916099691001</v>
+      </c>
+      <c r="F89">
+        <v>0.07709102550847922</v>
+      </c>
+      <c r="G89">
+        <v>0.02269558984208802</v>
+      </c>
+      <c r="H89">
+        <v>0.004434550455675842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07477574432479647</v>
+        <v>-0.07740843189485783</v>
       </c>
       <c r="C90">
-        <v>-0.05077799725652116</v>
+        <v>-0.06375505521983826</v>
       </c>
       <c r="D90">
-        <v>-0.3124924609833209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3057832556866631</v>
+      </c>
+      <c r="E90">
+        <v>-0.06782013520529728</v>
+      </c>
+      <c r="F90">
+        <v>0.001580538852047511</v>
+      </c>
+      <c r="G90">
+        <v>0.006118279795243092</v>
+      </c>
+      <c r="H90">
+        <v>5.302865935169899e-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08842988079332476</v>
+        <v>-0.09054496935816639</v>
       </c>
       <c r="C91">
-        <v>-0.05231743459860694</v>
+        <v>-0.03188173923775833</v>
       </c>
       <c r="D91">
-        <v>0.02454414465155208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03077469743026356</v>
+      </c>
+      <c r="E91">
+        <v>-0.007669085950478868</v>
+      </c>
+      <c r="F91">
+        <v>0.004130944437890084</v>
+      </c>
+      <c r="G91">
+        <v>0.05160412046904169</v>
+      </c>
+      <c r="H91">
+        <v>0.08630816162239818</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07494991289732827</v>
+        <v>-0.07763529092258027</v>
       </c>
       <c r="C92">
-        <v>-0.06838856617460873</v>
+        <v>-0.0832454970289707</v>
       </c>
       <c r="D92">
-        <v>-0.342290516821681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3468643650895696</v>
+      </c>
+      <c r="E92">
+        <v>-0.04133386390524692</v>
+      </c>
+      <c r="F92">
+        <v>0.04931652534519167</v>
+      </c>
+      <c r="G92">
+        <v>-0.01909354377519698</v>
+      </c>
+      <c r="H92">
+        <v>0.01495099655347707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06517758916637581</v>
+        <v>-0.07428179970014544</v>
       </c>
       <c r="C93">
-        <v>-0.06000397343755221</v>
+        <v>-0.07928338243458499</v>
       </c>
       <c r="D93">
-        <v>-0.31047317163079</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.308274034235094</v>
+      </c>
+      <c r="E93">
+        <v>-0.0248752612565264</v>
+      </c>
+      <c r="F93">
+        <v>0.03842408351216127</v>
+      </c>
+      <c r="G93">
+        <v>-0.01736238543396691</v>
+      </c>
+      <c r="H93">
+        <v>-0.01138331429689719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1348876882276678</v>
+        <v>-0.1287133938828635</v>
       </c>
       <c r="C94">
-        <v>-0.04546221280434733</v>
+        <v>-0.01517461587124295</v>
       </c>
       <c r="D94">
-        <v>0.03586885152989135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0450200760113187</v>
+      </c>
+      <c r="E94">
+        <v>0.01548995171136205</v>
+      </c>
+      <c r="F94">
+        <v>0.01571863023543787</v>
+      </c>
+      <c r="G94">
+        <v>0.06362309681921786</v>
+      </c>
+      <c r="H94">
+        <v>0.1039390490192269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1219152434502798</v>
+        <v>-0.1272802896767699</v>
       </c>
       <c r="C95">
-        <v>-0.03242927783911572</v>
+        <v>-0.005073265777739323</v>
       </c>
       <c r="D95">
-        <v>0.06643600190190938</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07090545989573521</v>
+      </c>
+      <c r="E95">
+        <v>-0.0102196444078176</v>
+      </c>
+      <c r="F95">
+        <v>0.03377234415852721</v>
+      </c>
+      <c r="G95">
+        <v>-0.01273169811287039</v>
+      </c>
+      <c r="H95">
+        <v>-0.0453670756646345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.218275234389382</v>
+        <v>-0.2053937885697916</v>
       </c>
       <c r="C97">
-        <v>-0.04723629658064608</v>
+        <v>-0.001231788255008787</v>
       </c>
       <c r="D97">
-        <v>-0.1050728479686501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08423437647728305</v>
+      </c>
+      <c r="E97">
+        <v>0.2248060750222843</v>
+      </c>
+      <c r="F97">
+        <v>-0.9000169024144442</v>
+      </c>
+      <c r="G97">
+        <v>-0.06788112640099528</v>
+      </c>
+      <c r="H97">
+        <v>0.01602635372785508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2511536319014272</v>
+        <v>-0.2773270188598053</v>
       </c>
       <c r="C98">
-        <v>-0.06759536616734881</v>
+        <v>-0.02875418836984083</v>
       </c>
       <c r="D98">
-        <v>0.03225669888528478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05313834913814067</v>
+      </c>
+      <c r="E98">
+        <v>0.1807289855351887</v>
+      </c>
+      <c r="F98">
+        <v>0.0736377783341645</v>
+      </c>
+      <c r="G98">
+        <v>0.2329554608207993</v>
+      </c>
+      <c r="H98">
+        <v>-0.2536812568038068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4199500611556836</v>
+        <v>-0.2774701196899846</v>
       </c>
       <c r="C99">
-        <v>0.891532958761612</v>
+        <v>0.9356532999876283</v>
       </c>
       <c r="D99">
-        <v>-0.04109793148502386</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1292132683803388</v>
+      </c>
+      <c r="E99">
+        <v>-0.06586847006630385</v>
+      </c>
+      <c r="F99">
+        <v>0.05146249997540061</v>
+      </c>
+      <c r="G99">
+        <v>0.02702509380991312</v>
+      </c>
+      <c r="H99">
+        <v>0.06812096340912202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04206179175755941</v>
+        <v>-0.04860663619080948</v>
       </c>
       <c r="C101">
-        <v>-0.02936033302808514</v>
+        <v>-0.02528636654164468</v>
       </c>
       <c r="D101">
-        <v>0.009099878576500567</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00723959979047555</v>
+      </c>
+      <c r="E101">
+        <v>-0.06093889012361856</v>
+      </c>
+      <c r="F101">
+        <v>0.01067111817177131</v>
+      </c>
+      <c r="G101">
+        <v>0.007970286698798838</v>
+      </c>
+      <c r="H101">
+        <v>0.07526309742725203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
